--- a/data/Аутэкология. (Общая экология)(1-87).xlsx
+++ b/data/Аутэкология. (Общая экология)(1-87).xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Почта</t>
   </si>
@@ -548,6 +545,12 @@
   </si>
   <si>
     <t>Дарья Кононова</t>
+  </si>
+  <si>
+    <t>st068449@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Карина Юрьева</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -566,13 +569,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,14 +586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -606,7 +594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,15 +602,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,31 +662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,33 +679,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -712,11 +709,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -729,25 +732,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,157 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,26 +935,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,35 +967,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,149 +1005,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,8 +1224,7 @@
     <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf/>
+  <dxfs count="3">
     <dxf/>
     <dxf/>
     <dxf/>
@@ -1237,13 +1239,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D88" totalsRowShown="0">
-  <autoFilter ref="A1:D88"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" name="Почта" dataDxfId="1"/>
-    <tableColumn id="3" name="Имя" dataDxfId="2"/>
-    <tableColumn id="4" name="Сумма баллов" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C89" totalsRowShown="0">
+  <autoFilter ref="A1:C89"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Почта" dataDxfId="0"/>
+    <tableColumn id="2" name="Имя" dataDxfId="1"/>
+    <tableColumn id="3" name="Сумма баллов" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,18 +1508,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,1226 +1529,973 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D59">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D69">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D85">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D88">
-        <v>10</v>
+      <c r="B89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/Аутэкология. (Общая экология)(1-87).xlsx
+++ b/data/Аутэкология. (Общая экология)(1-87).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9407"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>st078600@student.spbu.ru</t>
   </si>
   <si>
-    <t>st092135@ad.pu.ru</t>
+    <t>st092135@student.spbu.ru</t>
   </si>
   <si>
     <t>st075808@student.spbu.ru</t>
@@ -291,15 +291,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -309,6 +317,89 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -321,13 +412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -337,89 +421,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -434,6 +435,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -458,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,11 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,17 +710,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,152 +760,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1234,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1540,7 +1550,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38">
@@ -1548,7 +1558,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B39">
@@ -1956,6 +1966,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A39" r:id="rId2" display="st092135@student.spbu.ru" tooltip="mailto:st092135@student.spbu.ru"/>
+    <hyperlink ref="A38" r:id="rId3" display="st078600@student.spbu.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
